--- a/ecosysem/kinetics/Excels/ArrhCor.xlsx
+++ b/ecosysem/kinetics/Excels/ArrhCor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\kinetics\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A775DA-B611-44F4-8FCB-FD5C3F51E3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4261B93E-0D5A-4B71-82E6-E1AB88B10B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Sample</t>
   </si>
@@ -131,6 +131,39 @@
   </si>
   <si>
     <t>Surface bare soil from Puupuai volcano (0 – 2cm)</t>
+  </si>
+  <si>
+    <t>COOB</t>
+  </si>
+  <si>
+    <t>Soil from mixed hardwood-conifer forest at the Darling Marine Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histosol (pH 6.2, grassland) </t>
+  </si>
+  <si>
+    <t>Erie silt loam (pH 4.5, hardwood forest)</t>
+  </si>
+  <si>
+    <t>Williamson silt loam (pH 6.3, cropland)</t>
+  </si>
+  <si>
+    <t>Wehadkee silt loam 1 (pH 4.0, hardwood forest)</t>
+  </si>
+  <si>
+    <t>Congaree fine sandy loam (pH 4.5, hardwood forest)</t>
+  </si>
+  <si>
+    <t>Enon fine sandy loam (pH 4.5, hardwood forest)</t>
+  </si>
+  <si>
+    <t>Appling sandy loam (pH 4.7, cropland)</t>
+  </si>
+  <si>
+    <t>King1999</t>
+  </si>
+  <si>
+    <t>Bartholomew&amp;Alexander1981</t>
   </si>
 </sst>
 </file>
@@ -199,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -218,6 +251,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,16 +534,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
@@ -680,6 +716,118 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.0647927054995365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.0409903632428568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.0282628475203734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.0853809921575761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1.0621903537134996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1.0583611062340443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1.0567684448710524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1.0447408541537573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
